--- a/data/trans_camb/P6905-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 16,87</t>
+          <t>-18,32; 16,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 26,66</t>
+          <t>-10,61; 27,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 19,84</t>
+          <t>-16,79; 21,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 28,84</t>
+          <t>-11,75; 27,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 13,96</t>
+          <t>-26,5; 13,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 22,45</t>
+          <t>-12,81; 24,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 16,56</t>
+          <t>-10,26; 16,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 14,47</t>
+          <t>-13,3; 14,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 17,69</t>
+          <t>-8,3; 16,36</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 66,37</t>
+          <t>-44,18; 63,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 105,18</t>
+          <t>-26,78; 105,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 81,18</t>
+          <t>-41,36; 83,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 111,08</t>
+          <t>-26,11; 115,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,21; 62,08</t>
+          <t>-57,01; 53,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 91,66</t>
+          <t>-26,28; 91,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 57,13</t>
+          <t>-25,19; 62,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 49,55</t>
+          <t>-31,51; 51,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 59,8</t>
+          <t>-21,06; 56,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 24,41</t>
+          <t>-17,97; 24,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 30,41</t>
+          <t>-14,18; 32,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 17,75</t>
+          <t>-20,85; 17,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 18,78</t>
+          <t>-34,02; 17,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,24; -4,31</t>
+          <t>-50,0; -5,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,86; -10,83</t>
+          <t>-49,75; -13,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 13,89</t>
+          <t>-19,61; 15,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,83; 8,27</t>
+          <t>-27,19; 7,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-32,45; -2,38</t>
+          <t>-30,19; -2,08</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,95; 148,02</t>
+          <t>-51,15; 149,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,27; 196,73</t>
+          <t>-38,67; 198,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-58,21; 124,21</t>
+          <t>-58,64; 118,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 30,42</t>
+          <t>-45,13; 29,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,35; -7,43</t>
+          <t>-66,29; -9,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,05; -20,07</t>
+          <t>-66,74; -23,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,69; 35,16</t>
+          <t>-37,82; 41,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,83; 22,06</t>
+          <t>-50,09; 18,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,59; -4,51</t>
+          <t>-55,35; -2,81</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,85; -2,32</t>
+          <t>-30,0; -3,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-33,48; -5,34</t>
+          <t>-33,99; -6,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-32,8; -1,28</t>
+          <t>-34,31; -2,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 25,63</t>
+          <t>-34,75; 24,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 54,22</t>
+          <t>-31,86; 54,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,51; 16,78</t>
+          <t>-43,91; 18,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 0,84</t>
+          <t>-25,85; 1,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-28,61; -0,83</t>
+          <t>-29,78; -2,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-30,94; -1,87</t>
+          <t>-31,61; -3,1</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,78; -6,21</t>
+          <t>-65,86; -9,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,39; -12,13</t>
+          <t>-72,63; -17,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,73; -1,63</t>
+          <t>-74,22; -4,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,83; 121,23</t>
+          <t>-57,74; 125,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,33; 233,43</t>
+          <t>-52,51; 233,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,31; 87,79</t>
+          <t>-73,34; 85,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-54,25; 3,53</t>
+          <t>-52,78; 4,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,33; 0,37</t>
+          <t>-60,94; -4,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,35; -5,78</t>
+          <t>-64,02; -6,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 4,71</t>
+          <t>-16,26; 4,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 6,57</t>
+          <t>-13,8; 6,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 4,32</t>
+          <t>-18,52; 2,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 2,39</t>
+          <t>-33,3; 1,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 13,79</t>
+          <t>-19,92; 15,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,23; -0,94</t>
+          <t>-33,45; -0,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 3,23</t>
+          <t>-13,96; 2,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 9,53</t>
+          <t>-8,85; 8,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 2,23</t>
+          <t>-14,45; 3,22</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,07; 23,68</t>
+          <t>-50,95; 20,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,69; 32,89</t>
+          <t>-44,59; 30,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 21,73</t>
+          <t>-60,93; 12,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,69; 5,42</t>
+          <t>-59,42; 4,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 36,63</t>
+          <t>-35,14; 41,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,93; -3,03</t>
+          <t>-55,21; -1,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 11,42</t>
+          <t>-40,83; 8,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 35,4</t>
+          <t>-26,21; 31,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,37; 8,3</t>
+          <t>-40,78; 11,87</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 27,99</t>
+          <t>-7,26; 27,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 22,95</t>
+          <t>-5,81; 23,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 15,49</t>
+          <t>-15,65; 13,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 37,2</t>
+          <t>0,7; 36,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,84; 40,15</t>
+          <t>6,48; 40,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 23,23</t>
+          <t>-15,02; 22,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,22; 28,72</t>
+          <t>0,5; 27,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,45; 25,31</t>
+          <t>2,22; 26,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 16,39</t>
+          <t>-8,23; 17,23</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,73; 222,16</t>
+          <t>-36,11; 212,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 182,22</t>
+          <t>-26,71; 204,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,64; 129,93</t>
+          <t>-61,84; 129,51</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 270,33</t>
+          <t>-0,09; 251,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,98; 291,96</t>
+          <t>22,83; 302,85</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-51,02; 158,61</t>
+          <t>-49,33; 142,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,31; 189,22</t>
+          <t>0,17; 182,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>10,52; 183,1</t>
+          <t>5,85; 177,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 104,4</t>
+          <t>-35,77; 110,24</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 2,39</t>
+          <t>-10,58; 2,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 3,3</t>
+          <t>-9,03; 3,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,82; -0,11</t>
+          <t>-13,92; -0,03</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 9,7</t>
+          <t>-8,84; 10,02</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 11,88</t>
+          <t>-8,64; 9,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 0,41</t>
+          <t>-19,45; -0,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 4,38</t>
+          <t>-6,71; 4,73</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 3,96</t>
+          <t>-6,86; 3,86</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-11,6; -0,19</t>
+          <t>-11,48; -0,66</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 8,85</t>
+          <t>-32,03; 9,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 12,35</t>
+          <t>-27,52; 13,67</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -0,51</t>
+          <t>-42,66; 0,23</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 26,44</t>
+          <t>-19,12; 27,22</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 32,49</t>
+          <t>-19,22; 27,17</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-43,39; 0,92</t>
+          <t>-43,67; -0,87</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 14,44</t>
+          <t>-18,97; 15,97</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 12,94</t>
+          <t>-19,16; 12,36</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 0,21</t>
+          <t>-31,94; -1,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6905-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
